--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8114,15 +8114,90 @@
         <v>459.82</v>
       </c>
       <c r="D307" t="n">
-        <v>459.98</v>
+        <v>460.02</v>
       </c>
       <c r="E307" t="n">
         <v>459.81</v>
       </c>
       <c r="F307" t="n">
-        <v>459.81</v>
+        <v>459.95</v>
       </c>
       <c r="G307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>459.82</v>
+      </c>
+      <c r="D308" t="n">
+        <v>464.98</v>
+      </c>
+      <c r="E308" t="n">
+        <v>459.82</v>
+      </c>
+      <c r="F308" t="n">
+        <v>460.58</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>460.58</v>
+      </c>
+      <c r="D309" t="n">
+        <v>820</v>
+      </c>
+      <c r="E309" t="n">
+        <v>460.58</v>
+      </c>
+      <c r="F309" t="n">
+        <v>758.77</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>758.77</v>
+      </c>
+      <c r="D310" t="n">
+        <v>774</v>
+      </c>
+      <c r="E310" t="n">
+        <v>758.77</v>
+      </c>
+      <c r="F310" t="n">
+        <v>767</v>
+      </c>
+      <c r="G310" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -8189,13 +8189,13 @@
         <v>758.77</v>
       </c>
       <c r="D310" t="n">
-        <v>774</v>
+        <v>786.15</v>
       </c>
       <c r="E310" t="n">
-        <v>758.77</v>
+        <v>746</v>
       </c>
       <c r="F310" t="n">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -8189,15 +8189,40 @@
         <v>758.77</v>
       </c>
       <c r="D310" t="n">
-        <v>786.15</v>
+        <v>791.8200000000001</v>
       </c>
       <c r="E310" t="n">
         <v>746</v>
       </c>
       <c r="F310" t="n">
-        <v>775</v>
+        <v>758.896</v>
       </c>
       <c r="G310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>758.896</v>
+      </c>
+      <c r="D311" t="n">
+        <v>774.855</v>
+      </c>
+      <c r="E311" t="n">
+        <v>740.665</v>
+      </c>
+      <c r="F311" t="n">
+        <v>765.949</v>
+      </c>
+      <c r="G311" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -8214,13 +8214,13 @@
         <v>758.896</v>
       </c>
       <c r="D311" t="n">
-        <v>774.855</v>
+        <v>784.3920000000001</v>
       </c>
       <c r="E311" t="n">
         <v>740.665</v>
       </c>
       <c r="F311" t="n">
-        <v>765.949</v>
+        <v>760.79</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8220,9 +8220,84 @@
         <v>740.665</v>
       </c>
       <c r="F311" t="n">
-        <v>760.79</v>
+        <v>772.98</v>
       </c>
       <c r="G311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>772.98</v>
+      </c>
+      <c r="D312" t="n">
+        <v>784.532</v>
+      </c>
+      <c r="E312" t="n">
+        <v>737.22</v>
+      </c>
+      <c r="F312" t="n">
+        <v>769.05</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>769.05</v>
+      </c>
+      <c r="D313" t="n">
+        <v>908.928</v>
+      </c>
+      <c r="E313" t="n">
+        <v>746.605</v>
+      </c>
+      <c r="F313" t="n">
+        <v>908.928</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDNGN</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>908.928</v>
+      </c>
+      <c r="D314" t="n">
+        <v>908.929</v>
+      </c>
+      <c r="E314" t="n">
+        <v>786.09</v>
+      </c>
+      <c r="F314" t="n">
+        <v>802.8</v>
+      </c>
+      <c r="G314" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -8295,7 +8295,7 @@
         <v>786.09</v>
       </c>
       <c r="F314" t="n">
-        <v>802.8</v>
+        <v>839.542</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Nigeria_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7623,9 +7623,32 @@
         <v>786.09</v>
       </c>
       <c r="F314">
-        <v>816.099</v>
+        <v>790</v>
       </c>
       <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315">
+        <v>790</v>
+      </c>
+      <c r="D315">
+        <v>801</v>
+      </c>
+      <c r="E315">
+        <v>788</v>
+      </c>
+      <c r="F315">
+        <v>801</v>
+      </c>
+      <c r="G315">
         <v>0</v>
       </c>
     </row>
